--- a/prod/bom.xlsx
+++ b/prod/bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\GitHub\birdhouse_pcb_pi_power_hat\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1106B5-CA6B-4A52-95A1-14091F9F530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48DD5B-0E38-4E46-BFB6-3A94CFA8C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{CC3AFB4B-4571-4F91-BFE3-14DE82292735}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC3AFB4B-4571-4F91-BFE3-14DE82292735}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Comment</t>
   </si>
@@ -124,6 +124,63 @@
   </si>
   <si>
     <t>SOT-323(SC-70)</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3, J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>MOD1</t>
+  </si>
+  <si>
+    <t>LM2596HVS</t>
+  </si>
+  <si>
+    <t>Pi Header</t>
+  </si>
+  <si>
+    <t>Barrel Jack</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Screw terminal</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/Gravitech/CON-SOCJ-2155?qs=fkzBJ5HM%252BdCcpvFQyQZHtA%3D%3D</t>
+  </si>
+  <si>
+    <t>C474881</t>
+  </si>
+  <si>
+    <t>TH_L10.4…</t>
+  </si>
+  <si>
+    <t>C35165</t>
+  </si>
+  <si>
+    <t>C124378</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/product/B00U6Y9YPM/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>C135427 ??? (je ne sais plus, c'est le dernier mentioné sur Discord)</t>
   </si>
 </sst>
 </file>
@@ -512,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098126CD-E594-4625-983D-C94438FAB48B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +580,7 @@
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -636,6 +693,75 @@
       </c>
       <c r="D8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -644,5 +770,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>